--- a/excel/exported/inventories.xlsx
+++ b/excel/exported/inventories.xlsx
@@ -24,7 +24,7 @@
     <t>KG</t>
   </si>
   <si>
-    <t>2021-02-24 08:10:47.0000000</t>
+    <t>2021-03-27 11:56:02.0000000</t>
   </si>
   <si>
     <t>KOPI BIJI 02</t>

--- a/excel/exported/inventories.xlsx
+++ b/excel/exported/inventories.xlsx
@@ -24,7 +24,7 @@
     <t>KG</t>
   </si>
   <si>
-    <t>2021-03-27 11:56:02.0000000</t>
+    <t>2021-02-24 08:10:47.0000000</t>
   </si>
   <si>
     <t>KOPI BIJI 02</t>
